--- a/st1.xlsx
+++ b/st1.xlsx
@@ -10,8 +10,9 @@
   <sheets>
     <sheet name="MLP-RACI" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="MLP-RACI-META" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Model Lifecycle Touchpoints" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Client Questionnair" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="MLP-RACI-Groups" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Model Lifecycle Touchpoints" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Client Questionnair" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1514" uniqueCount="212">
   <si>
     <t xml:space="preserve">Line of Business</t>
   </si>
@@ -211,6 +212,9 @@
     <t xml:space="preserve">Documentation</t>
   </si>
   <si>
+    <t xml:space="preserve">TotalStorage;string</t>
+  </si>
+  <si>
     <t xml:space="preserve">Approval</t>
   </si>
   <si>
@@ -218,6 +222,51 @@
   </si>
   <si>
     <t xml:space="preserve">Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserEmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isAdmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">murali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">murali.achanta@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ashish.majmundar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fmimlops.acc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fmimlops.acc@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fmimlops.con</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fmimlops.con@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sandeep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mahendru.sandeep@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rochak</t>
   </si>
   <si>
     <t xml:space="preserve">Workstream</t>
@@ -817,7 +866,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -885,6 +934,19 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF127622"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -1110,7 +1172,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1303,59 +1365,75 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="18" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1379,7 +1457,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FFC00000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF127622"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -1439,13 +1517,14 @@
   <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="2" style="0" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="20" style="0" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="206.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1505,7 +1584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
@@ -1528,7 +1607,7 @@
       <c r="R2" s="19"/>
       <c r="S2" s="21"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
         <v>19</v>
       </c>
@@ -1587,7 +1666,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
         <v>24</v>
       </c>
@@ -1646,7 +1725,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
         <v>25</v>
       </c>
@@ -1705,7 +1784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
         <v>26</v>
       </c>
@@ -1764,7 +1843,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
         <v>27</v>
       </c>
@@ -1823,7 +1902,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="s">
         <v>28</v>
       </c>
@@ -1882,7 +1961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="28" t="s">
         <v>25</v>
       </c>
@@ -1941,7 +2020,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
         <v>29</v>
       </c>
@@ -2000,7 +2079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
         <v>30</v>
       </c>
@@ -2059,7 +2138,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="28" t="s">
         <v>28</v>
       </c>
@@ -2118,7 +2197,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28" t="s">
         <v>25</v>
       </c>
@@ -2177,7 +2256,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="28" t="s">
         <v>29</v>
       </c>
@@ -2236,7 +2315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="s">
         <v>31</v>
       </c>
@@ -2295,7 +2374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
         <v>28</v>
       </c>
@@ -2354,7 +2433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28" t="s">
         <v>25</v>
       </c>
@@ -2413,7 +2492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="28" t="s">
         <v>29</v>
       </c>
@@ -2472,7 +2551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
         <v>32</v>
       </c>
@@ -2495,7 +2574,7 @@
       <c r="R19" s="36"/>
       <c r="S19" s="38"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="s">
         <v>33</v>
       </c>
@@ -2554,7 +2633,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="28" t="s">
         <v>28</v>
       </c>
@@ -2613,7 +2692,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="28" t="s">
         <v>25</v>
       </c>
@@ -2672,7 +2751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="28" t="s">
         <v>34</v>
       </c>
@@ -2731,7 +2810,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="28" t="s">
         <v>35</v>
       </c>
@@ -2790,7 +2869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="28" t="s">
         <v>28</v>
       </c>
@@ -2849,7 +2928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="28" t="s">
         <v>25</v>
       </c>
@@ -2908,7 +2987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="s">
         <v>34</v>
       </c>
@@ -2967,7 +3046,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
         <v>36</v>
       </c>
@@ -3026,7 +3105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="28" t="s">
         <v>28</v>
       </c>
@@ -3085,7 +3164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
         <v>25</v>
       </c>
@@ -3144,7 +3223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
         <v>34</v>
       </c>
@@ -3203,7 +3282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
         <v>37</v>
       </c>
@@ -3226,7 +3305,7 @@
       <c r="R32" s="36"/>
       <c r="S32" s="38"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="s">
         <v>38</v>
       </c>
@@ -3285,7 +3364,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="s">
         <v>39</v>
       </c>
@@ -3344,7 +3423,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="28" t="s">
         <v>28</v>
       </c>
@@ -3403,7 +3482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="28" t="s">
         <v>25</v>
       </c>
@@ -3462,7 +3541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="28" t="s">
         <v>34</v>
       </c>
@@ -3521,7 +3600,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
         <v>40</v>
       </c>
@@ -3544,7 +3623,7 @@
       <c r="R38" s="36"/>
       <c r="S38" s="38"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="28" t="s">
         <v>41</v>
       </c>
@@ -3603,7 +3682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="28" t="s">
         <v>42</v>
       </c>
@@ -3662,7 +3741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="28" t="s">
         <v>28</v>
       </c>
@@ -3721,7 +3800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="28" t="s">
         <v>25</v>
       </c>
@@ -3780,7 +3859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="28" t="s">
         <v>34</v>
       </c>
@@ -3839,7 +3918,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11" t="s">
         <v>44</v>
       </c>
@@ -3862,7 +3941,7 @@
       <c r="R44" s="36"/>
       <c r="S44" s="38"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="28" t="s">
         <v>45</v>
       </c>
@@ -3921,7 +4000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="28" t="s">
         <v>46</v>
       </c>
@@ -3980,7 +4059,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="28" t="s">
         <v>28</v>
       </c>
@@ -4039,7 +4118,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="28" t="s">
         <v>25</v>
       </c>
@@ -4098,7 +4177,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="28" t="s">
         <v>34</v>
       </c>
@@ -4157,7 +4236,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
         <v>47</v>
       </c>
@@ -4180,7 +4259,7 @@
       <c r="R50" s="36"/>
       <c r="S50" s="38"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="28" t="s">
         <v>48</v>
       </c>
@@ -4239,7 +4318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="28" t="s">
         <v>49</v>
       </c>
@@ -4298,7 +4377,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="28" t="s">
         <v>28</v>
       </c>
@@ -4357,7 +4436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="28" t="s">
         <v>25</v>
       </c>
@@ -4416,7 +4495,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="28" t="s">
         <v>50</v>
       </c>
@@ -4475,7 +4554,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
         <v>51</v>
       </c>
@@ -4498,7 +4577,7 @@
       <c r="R56" s="36"/>
       <c r="S56" s="38"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="28" t="s">
         <v>52</v>
       </c>
@@ -4557,7 +4636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="28" t="s">
         <v>28</v>
       </c>
@@ -4616,7 +4695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="28" t="s">
         <v>25</v>
       </c>
@@ -4675,7 +4754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="28" t="s">
         <v>50</v>
       </c>
@@ -4734,7 +4813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="28" t="s">
         <v>53</v>
       </c>
@@ -4793,7 +4872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28" t="s">
         <v>28</v>
       </c>
@@ -4852,7 +4931,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="28" t="s">
         <v>25</v>
       </c>
@@ -4911,7 +4990,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="28" t="s">
         <v>50</v>
       </c>
@@ -4970,7 +5049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="28" t="s">
         <v>54</v>
       </c>
@@ -5029,7 +5108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="28" t="s">
         <v>28</v>
       </c>
@@ -5088,7 +5167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="28" t="s">
         <v>25</v>
       </c>
@@ -5147,7 +5226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="28" t="s">
         <v>50</v>
       </c>
@@ -5206,7 +5285,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="22"/>
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
@@ -5227,7 +5306,7 @@
       <c r="R69" s="43"/>
       <c r="S69" s="43"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="44"/>
       <c r="B70" s="45"/>
       <c r="C70" s="45"/>
@@ -5266,11 +5345,11 @@
   </sheetPr>
   <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C68" activeCellId="0" sqref="C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="107.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.03"/>
@@ -5317,13 +5396,16 @@
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D3" s="0" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
@@ -5337,7 +5419,7 @@
         <v>61</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5345,10 +5427,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5359,7 +5441,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5367,10 +5449,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5378,10 +5460,10 @@
         <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5389,10 +5471,10 @@
         <v>29</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5403,7 +5485,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5411,10 +5493,10 @@
         <v>28</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5422,10 +5504,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5433,10 +5515,10 @@
         <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5455,10 +5537,10 @@
         <v>28</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5466,10 +5548,10 @@
         <v>25</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5477,10 +5559,10 @@
         <v>29</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5499,10 +5581,10 @@
         <v>33</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5510,10 +5592,10 @@
         <v>28</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5521,10 +5603,10 @@
         <v>25</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5532,10 +5614,10 @@
         <v>34</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5543,10 +5625,10 @@
         <v>35</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5554,10 +5636,10 @@
         <v>28</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5565,10 +5647,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5576,10 +5658,10 @@
         <v>34</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5587,10 +5669,10 @@
         <v>36</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5598,10 +5680,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5609,10 +5691,10 @@
         <v>25</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5620,10 +5702,10 @@
         <v>34</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5642,10 +5724,10 @@
         <v>38</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5653,10 +5735,10 @@
         <v>39</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5664,10 +5746,10 @@
         <v>28</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5675,10 +5757,10 @@
         <v>25</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5686,10 +5768,10 @@
         <v>34</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5708,10 +5790,10 @@
         <v>41</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5719,10 +5801,10 @@
         <v>42</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5730,10 +5812,10 @@
         <v>28</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5741,10 +5823,10 @@
         <v>25</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5752,10 +5834,10 @@
         <v>34</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5774,10 +5856,10 @@
         <v>45</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5785,10 +5867,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5796,10 +5878,10 @@
         <v>28</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5807,10 +5889,10 @@
         <v>25</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5818,10 +5900,10 @@
         <v>34</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5843,7 +5925,7 @@
         <v>61</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5854,7 +5936,7 @@
         <v>61</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5862,10 +5944,10 @@
         <v>28</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5873,10 +5955,10 @@
         <v>25</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5884,10 +5966,10 @@
         <v>50</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5906,10 +5988,10 @@
         <v>52</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5917,10 +5999,10 @@
         <v>28</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5928,10 +6010,10 @@
         <v>25</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5939,10 +6021,10 @@
         <v>50</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5950,10 +6032,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5961,10 +6043,10 @@
         <v>28</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5972,10 +6054,10 @@
         <v>25</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5983,10 +6065,10 @@
         <v>50</v>
       </c>
       <c r="B64" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="0" t="n">
         <v>63</v>
-      </c>
-      <c r="C64" s="0" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5994,10 +6076,10 @@
         <v>54</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6005,10 +6087,10 @@
         <v>28</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6016,10 +6098,10 @@
         <v>25</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6027,19 +6109,19 @@
         <v>50</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6049,3336 +6131,4210 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:U37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="125.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="48"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="48"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="48"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="48"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="48"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="murali.achanta@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="ashish.majmundar@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="fmimlops.acc@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId4" display="fmimlops.acc@gmail.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="113.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="4" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="52" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="53" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="53"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="52" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="53"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="52" t="s">
+      <c r="B2" s="55" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="52" t="s">
+      <c r="C2" s="56" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="53"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="51" t="s">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="52" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="56" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="52" t="s">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="56" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="52" t="s">
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="53"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="51" t="s">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="52" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="57" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="52" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="57"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="58" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="52" t="s">
+      <c r="C10" s="56" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="53"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="52" t="s">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="56" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="53"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="51" t="s">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="57"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="57"/>
+    </row>
+    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="57"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="57"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="57"/>
+    </row>
+    <row r="32" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="52" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="52" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="53"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="51" t="s">
+      <c r="B32" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="56" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="57"/>
+    </row>
+    <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="52" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="52" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="52" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="52" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="52" t="s">
+      <c r="B49" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="56" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="57"/>
+    </row>
+    <row r="61" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="56" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="56" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="52" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="53"/>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="52" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="52" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="52" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="52" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="53"/>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="52" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" s="52" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="52" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="52" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="52" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="52" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="52" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="52" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="52" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="53"/>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="51" t="s">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="57"/>
+    </row>
+    <row r="71" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="55" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="56" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="C74" s="56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="56" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C76" s="56" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="56" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="56" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="56" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="57"/>
+    </row>
+    <row r="84" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B84" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="C84" s="52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="52" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="52" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="C88" s="52" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="52" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="52" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="52" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="52" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C93" s="52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C95" s="52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="51" t="s">
+      <c r="B84" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C89" s="56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C94" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B96" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="C96" s="52" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C97" s="56" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C98" s="56" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C100" s="52" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C101" s="52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C103" s="52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="C104" s="52" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C106" s="52" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C107" s="52" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="52" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="52" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C110" s="52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C111" s="52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C112" s="52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="C113" s="52" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C114" s="52" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C115" s="52" t="s">
+      <c r="B96" s="55" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C116" s="52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C117" s="52" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C118" s="52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="53"/>
-    </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C120" s="53"/>
-    </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C121" s="53"/>
-    </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="53"/>
-    </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C123" s="53"/>
-    </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C124" s="53"/>
-    </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C125" s="53"/>
-    </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C126" s="53"/>
-    </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C127" s="53"/>
-    </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C128" s="53"/>
-    </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C129" s="53"/>
-    </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C130" s="53"/>
-    </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C131" s="53"/>
-    </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C132" s="53"/>
-    </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C133" s="53"/>
-    </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C134" s="53"/>
-    </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C135" s="53"/>
-    </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C136" s="53"/>
-    </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="53"/>
-    </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="53"/>
-    </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="53"/>
-    </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C140" s="53"/>
-    </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C141" s="53"/>
-    </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C142" s="53"/>
-    </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C143" s="53"/>
-    </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C144" s="53"/>
-    </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C145" s="53"/>
-    </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C146" s="53"/>
-    </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C147" s="53"/>
-    </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C148" s="53"/>
-    </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C149" s="53"/>
-    </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C150" s="53"/>
-    </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C151" s="53"/>
-    </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C152" s="53"/>
-    </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C153" s="53"/>
-    </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C154" s="53"/>
-    </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C155" s="53"/>
-    </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C156" s="53"/>
-    </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C157" s="53"/>
-    </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C158" s="53"/>
-    </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C159" s="53"/>
-    </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C160" s="53"/>
-    </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C161" s="53"/>
-    </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C162" s="53"/>
-    </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C163" s="53"/>
-    </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C164" s="53"/>
-    </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C165" s="53"/>
-    </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C166" s="53"/>
-    </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C167" s="53"/>
-    </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C168" s="53"/>
-    </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C169" s="53"/>
-    </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C170" s="53"/>
-    </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C171" s="53"/>
-    </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C172" s="53"/>
-    </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C173" s="53"/>
-    </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C174" s="53"/>
-    </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C175" s="53"/>
-    </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C176" s="53"/>
-    </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C177" s="53"/>
-    </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C178" s="53"/>
-    </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C179" s="53"/>
-    </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C180" s="53"/>
-    </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C181" s="53"/>
-    </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C182" s="53"/>
-    </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C183" s="53"/>
-    </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C184" s="53"/>
-    </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C185" s="53"/>
-    </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C186" s="53"/>
-    </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C187" s="53"/>
-    </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C188" s="53"/>
-    </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C189" s="53"/>
-    </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C190" s="53"/>
-    </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C191" s="53"/>
-    </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C192" s="53"/>
-    </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C193" s="53"/>
-    </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C194" s="53"/>
-    </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C195" s="53"/>
-    </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C196" s="53"/>
-    </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C197" s="53"/>
-    </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C198" s="53"/>
-    </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C199" s="53"/>
-    </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="53"/>
-    </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="53"/>
-    </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C202" s="53"/>
-    </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C203" s="53"/>
-    </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C204" s="53"/>
-    </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C205" s="53"/>
-    </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C206" s="53"/>
-    </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C207" s="53"/>
-    </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C208" s="53"/>
-    </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C209" s="53"/>
-    </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C210" s="53"/>
-    </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C211" s="53"/>
-    </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C212" s="53"/>
-    </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C213" s="53"/>
-    </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C214" s="53"/>
-    </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C215" s="53"/>
-    </row>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C216" s="53"/>
-    </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C217" s="53"/>
-    </row>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C218" s="53"/>
-    </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C219" s="53"/>
-    </row>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C220" s="53"/>
-    </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C221" s="53"/>
-    </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C222" s="53"/>
-    </row>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C223" s="53"/>
-    </row>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C224" s="53"/>
-    </row>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C225" s="53"/>
-    </row>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C226" s="53"/>
-    </row>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C227" s="53"/>
-    </row>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C228" s="53"/>
-    </row>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C229" s="53"/>
-    </row>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C230" s="53"/>
-    </row>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C231" s="53"/>
-    </row>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C232" s="53"/>
-    </row>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C233" s="53"/>
-    </row>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C234" s="53"/>
-    </row>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C235" s="53"/>
-    </row>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C236" s="53"/>
-    </row>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C237" s="53"/>
-    </row>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C238" s="53"/>
-    </row>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C239" s="53"/>
-    </row>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C240" s="53"/>
-    </row>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C241" s="53"/>
-    </row>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C242" s="53"/>
-    </row>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C243" s="53"/>
-    </row>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C244" s="53"/>
-    </row>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C245" s="53"/>
-    </row>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C246" s="53"/>
-    </row>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C247" s="53"/>
-    </row>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C248" s="53"/>
-    </row>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C249" s="53"/>
-    </row>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C250" s="53"/>
-    </row>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C251" s="53"/>
-    </row>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C252" s="53"/>
-    </row>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C253" s="53"/>
-    </row>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C254" s="53"/>
-    </row>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C255" s="53"/>
-    </row>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C256" s="53"/>
-    </row>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C257" s="53"/>
-    </row>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C258" s="53"/>
-    </row>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C259" s="53"/>
-    </row>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C260" s="53"/>
-    </row>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C261" s="53"/>
-    </row>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C262" s="53"/>
-    </row>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C263" s="53"/>
-    </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C264" s="53"/>
-    </row>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C265" s="53"/>
-    </row>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C266" s="53"/>
-    </row>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C267" s="53"/>
-    </row>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C268" s="53"/>
-    </row>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C269" s="53"/>
-    </row>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C270" s="53"/>
-    </row>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C271" s="53"/>
-    </row>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C272" s="53"/>
-    </row>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C273" s="53"/>
-    </row>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C274" s="53"/>
-    </row>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C275" s="53"/>
-    </row>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C276" s="53"/>
-    </row>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C277" s="53"/>
-    </row>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C278" s="53"/>
-    </row>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C279" s="53"/>
-    </row>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C280" s="53"/>
-    </row>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C281" s="53"/>
-    </row>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C282" s="53"/>
-    </row>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C283" s="53"/>
-    </row>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C284" s="53"/>
-    </row>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C285" s="53"/>
-    </row>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C286" s="53"/>
-    </row>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C287" s="53"/>
-    </row>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C288" s="53"/>
-    </row>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C289" s="53"/>
-    </row>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C290" s="53"/>
-    </row>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C291" s="53"/>
-    </row>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C292" s="53"/>
-    </row>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C293" s="53"/>
-    </row>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C294" s="53"/>
-    </row>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C295" s="53"/>
-    </row>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C296" s="53"/>
-    </row>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C297" s="53"/>
-    </row>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C298" s="53"/>
-    </row>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C299" s="53"/>
-    </row>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C300" s="53"/>
-    </row>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C301" s="53"/>
-    </row>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C302" s="53"/>
-    </row>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C303" s="53"/>
-    </row>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C304" s="53"/>
-    </row>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C305" s="53"/>
-    </row>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C306" s="53"/>
-    </row>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C307" s="53"/>
-    </row>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C308" s="53"/>
-    </row>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C309" s="53"/>
-    </row>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C310" s="53"/>
-    </row>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C311" s="53"/>
-    </row>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C312" s="53"/>
-    </row>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C313" s="53"/>
-    </row>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C314" s="53"/>
-    </row>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C315" s="53"/>
-    </row>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C316" s="53"/>
-    </row>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C317" s="53"/>
-    </row>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C318" s="53"/>
-    </row>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C319" s="53"/>
-    </row>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C320" s="53"/>
-    </row>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C321" s="53"/>
-    </row>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C322" s="53"/>
-    </row>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C323" s="53"/>
-    </row>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C324" s="53"/>
-    </row>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C325" s="53"/>
-    </row>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C326" s="53"/>
-    </row>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C327" s="53"/>
-    </row>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C328" s="53"/>
-    </row>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C329" s="53"/>
-    </row>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C330" s="53"/>
-    </row>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C331" s="53"/>
-    </row>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C332" s="53"/>
-    </row>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C333" s="53"/>
-    </row>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C334" s="53"/>
-    </row>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C335" s="53"/>
-    </row>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C336" s="53"/>
-    </row>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C337" s="53"/>
-    </row>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C338" s="53"/>
-    </row>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C339" s="53"/>
-    </row>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C340" s="53"/>
-    </row>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C341" s="53"/>
-    </row>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C342" s="53"/>
-    </row>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C343" s="53"/>
-    </row>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C344" s="53"/>
-    </row>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C345" s="53"/>
-    </row>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C346" s="53"/>
-    </row>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C347" s="53"/>
-    </row>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C348" s="53"/>
-    </row>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C349" s="53"/>
-    </row>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C350" s="53"/>
-    </row>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C351" s="53"/>
-    </row>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C352" s="53"/>
-    </row>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C353" s="53"/>
-    </row>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C354" s="53"/>
-    </row>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C355" s="53"/>
-    </row>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C356" s="53"/>
-    </row>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C357" s="53"/>
-    </row>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C358" s="53"/>
-    </row>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C359" s="53"/>
-    </row>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C360" s="53"/>
-    </row>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C361" s="53"/>
-    </row>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C362" s="53"/>
-    </row>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C363" s="53"/>
-    </row>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C364" s="53"/>
-    </row>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C365" s="53"/>
-    </row>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C366" s="53"/>
-    </row>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C367" s="53"/>
-    </row>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C368" s="53"/>
-    </row>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C369" s="53"/>
-    </row>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C370" s="53"/>
-    </row>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C371" s="53"/>
-    </row>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C372" s="53"/>
-    </row>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C373" s="53"/>
-    </row>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C374" s="53"/>
-    </row>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C375" s="53"/>
-    </row>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C376" s="53"/>
-    </row>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C377" s="53"/>
-    </row>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C378" s="53"/>
-    </row>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C379" s="53"/>
-    </row>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C380" s="53"/>
-    </row>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C381" s="53"/>
-    </row>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C382" s="53"/>
-    </row>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C383" s="53"/>
-    </row>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C384" s="53"/>
-    </row>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C385" s="53"/>
-    </row>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C386" s="53"/>
-    </row>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C387" s="53"/>
-    </row>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C388" s="53"/>
-    </row>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C389" s="53"/>
-    </row>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C390" s="53"/>
-    </row>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C391" s="53"/>
-    </row>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C392" s="53"/>
-    </row>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C393" s="53"/>
-    </row>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C394" s="53"/>
-    </row>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C395" s="53"/>
-    </row>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C396" s="53"/>
-    </row>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C397" s="53"/>
-    </row>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C398" s="53"/>
-    </row>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C399" s="53"/>
-    </row>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C400" s="53"/>
-    </row>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C401" s="53"/>
-    </row>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C402" s="53"/>
-    </row>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="53"/>
-    </row>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="53"/>
-    </row>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C405" s="53"/>
-    </row>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C406" s="53"/>
-    </row>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="53"/>
-    </row>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="53"/>
-    </row>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C409" s="53"/>
-    </row>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C410" s="53"/>
-    </row>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="53"/>
-    </row>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="53"/>
-    </row>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="53"/>
-    </row>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C414" s="53"/>
-    </row>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="53"/>
-    </row>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="53"/>
-    </row>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C417" s="53"/>
-    </row>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C418" s="53"/>
-    </row>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C419" s="53"/>
-    </row>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C420" s="53"/>
-    </row>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C421" s="53"/>
-    </row>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C422" s="53"/>
-    </row>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C423" s="53"/>
-    </row>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C424" s="53"/>
-    </row>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C425" s="53"/>
-    </row>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C426" s="53"/>
-    </row>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C427" s="53"/>
-    </row>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C428" s="53"/>
-    </row>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C429" s="53"/>
-    </row>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C430" s="53"/>
-    </row>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C431" s="53"/>
-    </row>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C432" s="53"/>
-    </row>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C433" s="53"/>
-    </row>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C434" s="53"/>
-    </row>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C435" s="53"/>
-    </row>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="53"/>
-    </row>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C437" s="53"/>
-    </row>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="53"/>
-    </row>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C439" s="53"/>
-    </row>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="53"/>
-    </row>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="53"/>
-    </row>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="53"/>
-    </row>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="53"/>
-    </row>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="53"/>
-    </row>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="53"/>
-    </row>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="53"/>
-    </row>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="53"/>
-    </row>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="53"/>
-    </row>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="53"/>
-    </row>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="53"/>
-    </row>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="53"/>
-    </row>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="53"/>
-    </row>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="53"/>
-    </row>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="53"/>
-    </row>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="53"/>
-    </row>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="53"/>
-    </row>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="53"/>
-    </row>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="53"/>
-    </row>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="53"/>
-    </row>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="53"/>
-    </row>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="53"/>
-    </row>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="53"/>
-    </row>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="53"/>
-    </row>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="53"/>
-    </row>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="53"/>
-    </row>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="53"/>
-    </row>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="53"/>
-    </row>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="53"/>
-    </row>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="53"/>
-    </row>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="53"/>
-    </row>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="53"/>
-    </row>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="53"/>
-    </row>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="53"/>
-    </row>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="53"/>
-    </row>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="53"/>
-    </row>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="53"/>
-    </row>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="53"/>
-    </row>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="53"/>
-    </row>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="53"/>
-    </row>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="53"/>
-    </row>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="53"/>
-    </row>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="53"/>
-    </row>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="53"/>
-    </row>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="53"/>
-    </row>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="53"/>
-    </row>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="53"/>
-    </row>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="53"/>
-    </row>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="53"/>
-    </row>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="53"/>
-    </row>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="53"/>
-    </row>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="53"/>
-    </row>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C492" s="53"/>
-    </row>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C493" s="53"/>
-    </row>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C494" s="53"/>
-    </row>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C495" s="53"/>
-    </row>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C496" s="53"/>
-    </row>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C497" s="53"/>
-    </row>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C498" s="53"/>
-    </row>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C499" s="53"/>
-    </row>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C500" s="53"/>
-    </row>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C501" s="53"/>
-    </row>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C502" s="53"/>
-    </row>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C503" s="53"/>
-    </row>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C504" s="53"/>
-    </row>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C505" s="53"/>
-    </row>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C506" s="53"/>
-    </row>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C507" s="53"/>
-    </row>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C508" s="53"/>
-    </row>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C509" s="53"/>
-    </row>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C510" s="53"/>
-    </row>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C511" s="53"/>
-    </row>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C512" s="53"/>
-    </row>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C513" s="53"/>
-    </row>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C514" s="53"/>
-    </row>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C515" s="53"/>
-    </row>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C516" s="53"/>
-    </row>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C517" s="53"/>
-    </row>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C518" s="53"/>
-    </row>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C519" s="53"/>
-    </row>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C520" s="53"/>
-    </row>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C521" s="53"/>
-    </row>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C522" s="53"/>
-    </row>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C523" s="53"/>
-    </row>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C524" s="53"/>
-    </row>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C525" s="53"/>
-    </row>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C526" s="53"/>
-    </row>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C527" s="53"/>
-    </row>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C528" s="53"/>
-    </row>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C529" s="53"/>
-    </row>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C530" s="53"/>
-    </row>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C531" s="53"/>
-    </row>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C532" s="53"/>
-    </row>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C533" s="53"/>
-    </row>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C534" s="53"/>
-    </row>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C535" s="53"/>
-    </row>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C536" s="53"/>
-    </row>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C537" s="53"/>
-    </row>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C538" s="53"/>
-    </row>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C539" s="53"/>
-    </row>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C540" s="53"/>
-    </row>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C541" s="53"/>
-    </row>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C542" s="53"/>
-    </row>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C543" s="53"/>
-    </row>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C544" s="53"/>
-    </row>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C545" s="53"/>
-    </row>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C546" s="53"/>
-    </row>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C547" s="53"/>
-    </row>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C548" s="53"/>
-    </row>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C549" s="53"/>
-    </row>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C550" s="53"/>
-    </row>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C551" s="53"/>
-    </row>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C552" s="53"/>
-    </row>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C553" s="53"/>
-    </row>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C554" s="53"/>
-    </row>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C555" s="53"/>
-    </row>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C556" s="53"/>
-    </row>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C557" s="53"/>
-    </row>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C558" s="53"/>
-    </row>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C559" s="53"/>
-    </row>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C560" s="53"/>
-    </row>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C561" s="53"/>
-    </row>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C562" s="53"/>
-    </row>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C563" s="53"/>
-    </row>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C564" s="53"/>
-    </row>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C565" s="53"/>
-    </row>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C566" s="53"/>
-    </row>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C567" s="53"/>
-    </row>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C568" s="53"/>
-    </row>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C569" s="53"/>
-    </row>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C570" s="53"/>
-    </row>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C571" s="53"/>
-    </row>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C572" s="53"/>
-    </row>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C573" s="53"/>
-    </row>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C574" s="53"/>
-    </row>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C575" s="53"/>
-    </row>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C576" s="53"/>
-    </row>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C577" s="53"/>
-    </row>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C578" s="53"/>
-    </row>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C579" s="53"/>
-    </row>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C580" s="53"/>
-    </row>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C581" s="53"/>
-    </row>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C582" s="53"/>
-    </row>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C583" s="53"/>
-    </row>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C584" s="53"/>
-    </row>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C585" s="53"/>
-    </row>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C586" s="53"/>
-    </row>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C587" s="53"/>
-    </row>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C588" s="53"/>
-    </row>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C589" s="53"/>
-    </row>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C590" s="53"/>
-    </row>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C591" s="53"/>
-    </row>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C592" s="53"/>
-    </row>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C593" s="53"/>
-    </row>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C594" s="53"/>
-    </row>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C595" s="53"/>
-    </row>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C596" s="53"/>
-    </row>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C597" s="53"/>
-    </row>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C598" s="53"/>
-    </row>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C599" s="53"/>
-    </row>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C600" s="53"/>
-    </row>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C601" s="53"/>
-    </row>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C602" s="53"/>
-    </row>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C603" s="53"/>
-    </row>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C604" s="53"/>
-    </row>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C605" s="53"/>
-    </row>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C606" s="53"/>
-    </row>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C607" s="53"/>
-    </row>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C608" s="53"/>
-    </row>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C609" s="53"/>
-    </row>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C610" s="53"/>
-    </row>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C611" s="53"/>
-    </row>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C612" s="53"/>
-    </row>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C613" s="53"/>
-    </row>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C614" s="53"/>
-    </row>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C615" s="53"/>
-    </row>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C616" s="53"/>
-    </row>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C617" s="53"/>
-    </row>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C618" s="53"/>
-    </row>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C619" s="53"/>
-    </row>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C620" s="53"/>
-    </row>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C621" s="53"/>
-    </row>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C622" s="53"/>
-    </row>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C623" s="53"/>
-    </row>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C624" s="53"/>
-    </row>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C625" s="53"/>
-    </row>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C626" s="53"/>
-    </row>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C627" s="53"/>
-    </row>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C628" s="53"/>
-    </row>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C629" s="53"/>
-    </row>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C630" s="53"/>
-    </row>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C631" s="53"/>
-    </row>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C632" s="53"/>
-    </row>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C633" s="53"/>
-    </row>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C634" s="53"/>
-    </row>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C635" s="53"/>
-    </row>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C636" s="53"/>
-    </row>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C637" s="53"/>
-    </row>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C638" s="53"/>
-    </row>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C639" s="53"/>
-    </row>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C640" s="53"/>
-    </row>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C641" s="53"/>
-    </row>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C642" s="53"/>
-    </row>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C643" s="53"/>
-    </row>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C644" s="53"/>
-    </row>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C645" s="53"/>
-    </row>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C646" s="53"/>
-    </row>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C647" s="53"/>
-    </row>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C648" s="53"/>
-    </row>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C649" s="53"/>
-    </row>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C650" s="53"/>
-    </row>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C651" s="53"/>
-    </row>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C652" s="53"/>
-    </row>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C653" s="53"/>
-    </row>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C654" s="53"/>
-    </row>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C655" s="53"/>
-    </row>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C656" s="53"/>
-    </row>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C657" s="53"/>
-    </row>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C658" s="53"/>
-    </row>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C659" s="53"/>
-    </row>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C660" s="53"/>
-    </row>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C661" s="53"/>
-    </row>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C662" s="53"/>
-    </row>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C663" s="53"/>
-    </row>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C664" s="53"/>
-    </row>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C665" s="53"/>
-    </row>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C666" s="53"/>
-    </row>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C667" s="53"/>
-    </row>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C668" s="53"/>
-    </row>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C669" s="53"/>
-    </row>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C670" s="53"/>
-    </row>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C671" s="53"/>
-    </row>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C672" s="53"/>
-    </row>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C673" s="53"/>
-    </row>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C674" s="53"/>
-    </row>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C675" s="53"/>
-    </row>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C676" s="53"/>
-    </row>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C677" s="53"/>
-    </row>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C678" s="53"/>
-    </row>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C679" s="53"/>
-    </row>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C680" s="53"/>
-    </row>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C681" s="53"/>
-    </row>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C682" s="53"/>
-    </row>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C683" s="53"/>
-    </row>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C684" s="53"/>
-    </row>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C685" s="53"/>
-    </row>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C686" s="53"/>
-    </row>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C687" s="53"/>
-    </row>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C688" s="53"/>
-    </row>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C689" s="53"/>
-    </row>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C690" s="53"/>
-    </row>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C691" s="53"/>
-    </row>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C692" s="53"/>
-    </row>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C693" s="53"/>
-    </row>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C694" s="53"/>
-    </row>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C695" s="53"/>
-    </row>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C696" s="53"/>
-    </row>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C697" s="53"/>
-    </row>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C698" s="53"/>
-    </row>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C699" s="53"/>
-    </row>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C700" s="53"/>
-    </row>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C701" s="53"/>
-    </row>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C702" s="53"/>
-    </row>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C703" s="53"/>
-    </row>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C704" s="53"/>
-    </row>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C705" s="53"/>
-    </row>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C706" s="53"/>
-    </row>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C707" s="53"/>
-    </row>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C708" s="53"/>
-    </row>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C709" s="53"/>
-    </row>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C710" s="53"/>
-    </row>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C711" s="53"/>
-    </row>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C712" s="53"/>
-    </row>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C713" s="53"/>
-    </row>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C714" s="53"/>
-    </row>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C715" s="53"/>
-    </row>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C716" s="53"/>
-    </row>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C717" s="53"/>
-    </row>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C718" s="53"/>
-    </row>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C719" s="53"/>
-    </row>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C720" s="53"/>
-    </row>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C721" s="53"/>
-    </row>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C722" s="53"/>
-    </row>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C723" s="53"/>
-    </row>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C724" s="53"/>
-    </row>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C725" s="53"/>
-    </row>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C726" s="53"/>
-    </row>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C727" s="53"/>
-    </row>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C728" s="53"/>
-    </row>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C729" s="53"/>
-    </row>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C730" s="53"/>
-    </row>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C731" s="53"/>
-    </row>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C732" s="53"/>
-    </row>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C733" s="53"/>
-    </row>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C734" s="53"/>
-    </row>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C735" s="53"/>
-    </row>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C736" s="53"/>
-    </row>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C737" s="53"/>
-    </row>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C738" s="53"/>
-    </row>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C739" s="53"/>
-    </row>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C740" s="53"/>
-    </row>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C741" s="53"/>
-    </row>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C742" s="53"/>
-    </row>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C743" s="53"/>
-    </row>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C744" s="53"/>
-    </row>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C745" s="53"/>
-    </row>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C746" s="53"/>
-    </row>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C747" s="53"/>
-    </row>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C748" s="53"/>
-    </row>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C749" s="53"/>
-    </row>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C750" s="53"/>
-    </row>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C751" s="53"/>
-    </row>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C752" s="53"/>
-    </row>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C753" s="53"/>
-    </row>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C754" s="53"/>
-    </row>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C755" s="53"/>
-    </row>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C756" s="53"/>
-    </row>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C757" s="53"/>
-    </row>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C758" s="53"/>
-    </row>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C759" s="53"/>
-    </row>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C760" s="53"/>
-    </row>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C761" s="53"/>
-    </row>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C762" s="53"/>
-    </row>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C763" s="53"/>
-    </row>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C764" s="53"/>
-    </row>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C765" s="53"/>
-    </row>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C766" s="53"/>
-    </row>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C767" s="53"/>
-    </row>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C768" s="53"/>
-    </row>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C769" s="53"/>
-    </row>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C770" s="53"/>
-    </row>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C771" s="53"/>
-    </row>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C772" s="53"/>
-    </row>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C773" s="53"/>
-    </row>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C774" s="53"/>
-    </row>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C775" s="53"/>
-    </row>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C776" s="53"/>
-    </row>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C777" s="53"/>
-    </row>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C778" s="53"/>
-    </row>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C779" s="53"/>
-    </row>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C780" s="53"/>
-    </row>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C781" s="53"/>
-    </row>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C782" s="53"/>
-    </row>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C783" s="53"/>
-    </row>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C784" s="53"/>
-    </row>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C785" s="53"/>
-    </row>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C786" s="53"/>
-    </row>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C787" s="53"/>
-    </row>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C788" s="53"/>
-    </row>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C789" s="53"/>
-    </row>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C790" s="53"/>
-    </row>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C791" s="53"/>
-    </row>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C792" s="53"/>
-    </row>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C793" s="53"/>
-    </row>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C794" s="53"/>
-    </row>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C795" s="53"/>
-    </row>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C796" s="53"/>
-    </row>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C797" s="53"/>
-    </row>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C798" s="53"/>
-    </row>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C799" s="53"/>
-    </row>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C800" s="53"/>
-    </row>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C801" s="53"/>
-    </row>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C802" s="53"/>
-    </row>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C803" s="53"/>
-    </row>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C804" s="53"/>
-    </row>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C805" s="53"/>
-    </row>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C806" s="53"/>
-    </row>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C807" s="53"/>
-    </row>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C808" s="53"/>
-    </row>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C809" s="53"/>
-    </row>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C810" s="53"/>
-    </row>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C811" s="53"/>
-    </row>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C812" s="53"/>
-    </row>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C813" s="53"/>
-    </row>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C814" s="53"/>
-    </row>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C815" s="53"/>
-    </row>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C816" s="53"/>
-    </row>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C817" s="53"/>
-    </row>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C818" s="53"/>
-    </row>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C819" s="53"/>
-    </row>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C820" s="53"/>
-    </row>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C821" s="53"/>
-    </row>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C822" s="53"/>
-    </row>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C823" s="53"/>
-    </row>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C824" s="53"/>
-    </row>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C825" s="53"/>
-    </row>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C826" s="53"/>
-    </row>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C827" s="53"/>
-    </row>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C828" s="53"/>
-    </row>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C829" s="53"/>
-    </row>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C830" s="53"/>
-    </row>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C831" s="53"/>
-    </row>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C832" s="53"/>
-    </row>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C833" s="53"/>
-    </row>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C834" s="53"/>
-    </row>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C835" s="53"/>
-    </row>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C836" s="53"/>
-    </row>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C837" s="53"/>
-    </row>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C838" s="53"/>
-    </row>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C839" s="53"/>
-    </row>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C840" s="53"/>
-    </row>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C841" s="53"/>
-    </row>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C842" s="53"/>
-    </row>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C843" s="53"/>
-    </row>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C844" s="53"/>
-    </row>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C845" s="53"/>
-    </row>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C846" s="53"/>
-    </row>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C847" s="53"/>
-    </row>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C848" s="53"/>
-    </row>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C849" s="53"/>
-    </row>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C850" s="53"/>
-    </row>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C851" s="53"/>
-    </row>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C852" s="53"/>
-    </row>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C853" s="53"/>
-    </row>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C854" s="53"/>
-    </row>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C855" s="53"/>
-    </row>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C856" s="53"/>
-    </row>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C857" s="53"/>
-    </row>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C858" s="53"/>
-    </row>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C859" s="53"/>
-    </row>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C860" s="53"/>
-    </row>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C861" s="53"/>
-    </row>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C862" s="53"/>
-    </row>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C863" s="53"/>
-    </row>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C864" s="53"/>
-    </row>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C865" s="53"/>
-    </row>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C866" s="53"/>
-    </row>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C867" s="53"/>
-    </row>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C868" s="53"/>
-    </row>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C869" s="53"/>
-    </row>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C870" s="53"/>
-    </row>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C871" s="53"/>
-    </row>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C872" s="53"/>
-    </row>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C873" s="53"/>
-    </row>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C874" s="53"/>
-    </row>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C875" s="53"/>
-    </row>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C876" s="53"/>
-    </row>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C877" s="53"/>
-    </row>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C878" s="53"/>
-    </row>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C879" s="53"/>
-    </row>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C880" s="53"/>
-    </row>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C881" s="53"/>
-    </row>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C882" s="53"/>
-    </row>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C883" s="53"/>
-    </row>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C884" s="53"/>
-    </row>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C885" s="53"/>
-    </row>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C886" s="53"/>
-    </row>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C887" s="53"/>
-    </row>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C888" s="53"/>
-    </row>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C889" s="53"/>
-    </row>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C890" s="53"/>
-    </row>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C891" s="53"/>
-    </row>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C892" s="53"/>
-    </row>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C893" s="53"/>
-    </row>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C894" s="53"/>
-    </row>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C895" s="53"/>
-    </row>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C896" s="53"/>
-    </row>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C897" s="53"/>
-    </row>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C898" s="53"/>
-    </row>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C899" s="53"/>
-    </row>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C900" s="53"/>
-    </row>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C901" s="53"/>
-    </row>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C902" s="53"/>
-    </row>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C903" s="53"/>
-    </row>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C904" s="53"/>
-    </row>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C905" s="53"/>
-    </row>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C906" s="53"/>
-    </row>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C907" s="53"/>
-    </row>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C908" s="53"/>
-    </row>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C909" s="53"/>
-    </row>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C910" s="53"/>
-    </row>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C911" s="53"/>
-    </row>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C912" s="53"/>
-    </row>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C913" s="53"/>
-    </row>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C914" s="53"/>
-    </row>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C915" s="53"/>
-    </row>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C916" s="53"/>
-    </row>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C917" s="53"/>
-    </row>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C918" s="53"/>
-    </row>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C919" s="53"/>
-    </row>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C920" s="53"/>
-    </row>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C921" s="53"/>
-    </row>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C922" s="53"/>
-    </row>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C923" s="53"/>
-    </row>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C924" s="53"/>
-    </row>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C925" s="53"/>
-    </row>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C926" s="53"/>
-    </row>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C927" s="53"/>
-    </row>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C928" s="53"/>
-    </row>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C929" s="53"/>
-    </row>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C930" s="53"/>
-    </row>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C931" s="53"/>
-    </row>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C932" s="53"/>
-    </row>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C933" s="53"/>
-    </row>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C934" s="53"/>
-    </row>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C935" s="53"/>
-    </row>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C936" s="53"/>
-    </row>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C937" s="53"/>
-    </row>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C938" s="53"/>
-    </row>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C939" s="53"/>
-    </row>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C940" s="53"/>
-    </row>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C941" s="53"/>
-    </row>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C942" s="53"/>
-    </row>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C943" s="53"/>
-    </row>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C944" s="53"/>
-    </row>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C945" s="53"/>
-    </row>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C946" s="53"/>
-    </row>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C947" s="53"/>
-    </row>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C948" s="53"/>
-    </row>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C949" s="53"/>
-    </row>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C950" s="53"/>
-    </row>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C951" s="53"/>
-    </row>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C952" s="53"/>
-    </row>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C953" s="53"/>
-    </row>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C954" s="53"/>
-    </row>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C955" s="53"/>
-    </row>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C956" s="53"/>
-    </row>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C957" s="53"/>
-    </row>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C958" s="53"/>
-    </row>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C959" s="53"/>
-    </row>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C960" s="53"/>
-    </row>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C961" s="53"/>
-    </row>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C962" s="53"/>
-    </row>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C963" s="53"/>
-    </row>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C964" s="53"/>
-    </row>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C965" s="53"/>
-    </row>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C966" s="53"/>
-    </row>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C967" s="53"/>
-    </row>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C968" s="53"/>
-    </row>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C969" s="53"/>
-    </row>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C970" s="53"/>
-    </row>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C971" s="53"/>
-    </row>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C972" s="53"/>
-    </row>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C973" s="53"/>
-    </row>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C974" s="53"/>
-    </row>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C975" s="53"/>
-    </row>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C976" s="53"/>
-    </row>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C977" s="53"/>
-    </row>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C978" s="53"/>
-    </row>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C979" s="53"/>
-    </row>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C980" s="53"/>
-    </row>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C981" s="53"/>
-    </row>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C982" s="53"/>
-    </row>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C983" s="53"/>
-    </row>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C984" s="53"/>
-    </row>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C985" s="53"/>
-    </row>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C986" s="53"/>
-    </row>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C987" s="53"/>
-    </row>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C988" s="53"/>
-    </row>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C989" s="53"/>
-    </row>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C990" s="53"/>
-    </row>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C991" s="53"/>
-    </row>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C992" s="53"/>
-    </row>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C993" s="53"/>
-    </row>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C994" s="53"/>
-    </row>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C995" s="53"/>
-    </row>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C996" s="53"/>
-    </row>
-    <row r="997" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C997" s="53"/>
-    </row>
-    <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C998" s="53"/>
-    </row>
-    <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C999" s="53"/>
-    </row>
-    <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1000" s="53"/>
+      <c r="C96" s="56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="60" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="60" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C101" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C103" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104" s="56" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="56" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C110" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C112" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C113" s="56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C114" s="56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C115" s="56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C116" s="56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C117" s="56" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C119" s="57"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C120" s="57"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C121" s="57"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C122" s="57"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C123" s="57"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C124" s="57"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C125" s="57"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C126" s="57"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C127" s="57"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C128" s="57"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C129" s="57"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C130" s="57"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C131" s="57"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C132" s="57"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C133" s="57"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C134" s="57"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="57"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="57"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="57"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="57"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="57"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="57"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C141" s="57"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C142" s="57"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C143" s="57"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C144" s="57"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C145" s="57"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C146" s="57"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C147" s="57"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C148" s="57"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C149" s="57"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C150" s="57"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C151" s="57"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C152" s="57"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C153" s="57"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C154" s="57"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C155" s="57"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C156" s="57"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C157" s="57"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C158" s="57"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C159" s="57"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C160" s="57"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C161" s="57"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C162" s="57"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C163" s="57"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C164" s="57"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C165" s="57"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C166" s="57"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C167" s="57"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C168" s="57"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C169" s="57"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C170" s="57"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C171" s="57"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C172" s="57"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C173" s="57"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C174" s="57"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C175" s="57"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C176" s="57"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C177" s="57"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C178" s="57"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C179" s="57"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C180" s="57"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C181" s="57"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C182" s="57"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C183" s="57"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C184" s="57"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C185" s="57"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C186" s="57"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C187" s="57"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C188" s="57"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C189" s="57"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C190" s="57"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C191" s="57"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C192" s="57"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C193" s="57"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C194" s="57"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C195" s="57"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C196" s="57"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C197" s="57"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C198" s="57"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C199" s="57"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C200" s="57"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C201" s="57"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C202" s="57"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C203" s="57"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C204" s="57"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C205" s="57"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C206" s="57"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C207" s="57"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C208" s="57"/>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C209" s="57"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C210" s="57"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C211" s="57"/>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C212" s="57"/>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C213" s="57"/>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C214" s="57"/>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C215" s="57"/>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C216" s="57"/>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C217" s="57"/>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C218" s="57"/>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C219" s="57"/>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C220" s="57"/>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C221" s="57"/>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C222" s="57"/>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C223" s="57"/>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C224" s="57"/>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C225" s="57"/>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C226" s="57"/>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C227" s="57"/>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C228" s="57"/>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C229" s="57"/>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C230" s="57"/>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C231" s="57"/>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C232" s="57"/>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C233" s="57"/>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C234" s="57"/>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C235" s="57"/>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C236" s="57"/>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C237" s="57"/>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C238" s="57"/>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C239" s="57"/>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C240" s="57"/>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C241" s="57"/>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C242" s="57"/>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C243" s="57"/>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C244" s="57"/>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C245" s="57"/>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C246" s="57"/>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C247" s="57"/>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C248" s="57"/>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C249" s="57"/>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C250" s="57"/>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C251" s="57"/>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C252" s="57"/>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C253" s="57"/>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C254" s="57"/>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C255" s="57"/>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C256" s="57"/>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C257" s="57"/>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C258" s="57"/>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C259" s="57"/>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C260" s="57"/>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C261" s="57"/>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C262" s="57"/>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C263" s="57"/>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C264" s="57"/>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C265" s="57"/>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C266" s="57"/>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C267" s="57"/>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C268" s="57"/>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C269" s="57"/>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C270" s="57"/>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C271" s="57"/>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C272" s="57"/>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C273" s="57"/>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C274" s="57"/>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C275" s="57"/>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C276" s="57"/>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C277" s="57"/>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C278" s="57"/>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C279" s="57"/>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C280" s="57"/>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C281" s="57"/>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C282" s="57"/>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C283" s="57"/>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C284" s="57"/>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C285" s="57"/>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C286" s="57"/>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C287" s="57"/>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C288" s="57"/>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C289" s="57"/>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C290" s="57"/>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C291" s="57"/>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C292" s="57"/>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C293" s="57"/>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C294" s="57"/>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C295" s="57"/>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C296" s="57"/>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C297" s="57"/>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C298" s="57"/>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C299" s="57"/>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C300" s="57"/>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C301" s="57"/>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C302" s="57"/>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C303" s="57"/>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C304" s="57"/>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C305" s="57"/>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C306" s="57"/>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C307" s="57"/>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C308" s="57"/>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C309" s="57"/>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C310" s="57"/>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C311" s="57"/>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C312" s="57"/>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C313" s="57"/>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C314" s="57"/>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C315" s="57"/>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C316" s="57"/>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C317" s="57"/>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C318" s="57"/>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C319" s="57"/>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C320" s="57"/>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C321" s="57"/>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C322" s="57"/>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C323" s="57"/>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C324" s="57"/>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C325" s="57"/>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C326" s="57"/>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C327" s="57"/>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C328" s="57"/>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C329" s="57"/>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C330" s="57"/>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C331" s="57"/>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C332" s="57"/>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C333" s="57"/>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C334" s="57"/>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C335" s="57"/>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C336" s="57"/>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C337" s="57"/>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C338" s="57"/>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C339" s="57"/>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C340" s="57"/>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C341" s="57"/>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C342" s="57"/>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C343" s="57"/>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C344" s="57"/>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C345" s="57"/>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C346" s="57"/>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C347" s="57"/>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C348" s="57"/>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C349" s="57"/>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C350" s="57"/>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C351" s="57"/>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C352" s="57"/>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C353" s="57"/>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C354" s="57"/>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C355" s="57"/>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C356" s="57"/>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C357" s="57"/>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C358" s="57"/>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C359" s="57"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C360" s="57"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C361" s="57"/>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C362" s="57"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C363" s="57"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C364" s="57"/>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C365" s="57"/>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C366" s="57"/>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C367" s="57"/>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C368" s="57"/>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C369" s="57"/>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C370" s="57"/>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C371" s="57"/>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C372" s="57"/>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C373" s="57"/>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C374" s="57"/>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C375" s="57"/>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C376" s="57"/>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C377" s="57"/>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C378" s="57"/>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C379" s="57"/>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C380" s="57"/>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C381" s="57"/>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C382" s="57"/>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C383" s="57"/>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C384" s="57"/>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C385" s="57"/>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C386" s="57"/>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C387" s="57"/>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C388" s="57"/>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C389" s="57"/>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C390" s="57"/>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C391" s="57"/>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C392" s="57"/>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C393" s="57"/>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C394" s="57"/>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C395" s="57"/>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C396" s="57"/>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C397" s="57"/>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C398" s="57"/>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C399" s="57"/>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C400" s="57"/>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C401" s="57"/>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C402" s="57"/>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C403" s="57"/>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C404" s="57"/>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C405" s="57"/>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C406" s="57"/>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C407" s="57"/>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C408" s="57"/>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C409" s="57"/>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C410" s="57"/>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C411" s="57"/>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C412" s="57"/>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C413" s="57"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C414" s="57"/>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C415" s="57"/>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C416" s="57"/>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C417" s="57"/>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C418" s="57"/>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C419" s="57"/>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C420" s="57"/>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C421" s="57"/>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C422" s="57"/>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C423" s="57"/>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C424" s="57"/>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C425" s="57"/>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C426" s="57"/>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C427" s="57"/>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C428" s="57"/>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C429" s="57"/>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C430" s="57"/>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C431" s="57"/>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C432" s="57"/>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C433" s="57"/>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C434" s="57"/>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C435" s="57"/>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C436" s="57"/>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C437" s="57"/>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C438" s="57"/>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C439" s="57"/>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C440" s="57"/>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C441" s="57"/>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C442" s="57"/>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C443" s="57"/>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C444" s="57"/>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C445" s="57"/>
+    </row>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C446" s="57"/>
+    </row>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C447" s="57"/>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C448" s="57"/>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C449" s="57"/>
+    </row>
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C450" s="57"/>
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C451" s="57"/>
+    </row>
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C452" s="57"/>
+    </row>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C453" s="57"/>
+    </row>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C454" s="57"/>
+    </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C455" s="57"/>
+    </row>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C456" s="57"/>
+    </row>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C457" s="57"/>
+    </row>
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C458" s="57"/>
+    </row>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C459" s="57"/>
+    </row>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C460" s="57"/>
+    </row>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C461" s="57"/>
+    </row>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C462" s="57"/>
+    </row>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C463" s="57"/>
+    </row>
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C464" s="57"/>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C465" s="57"/>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C466" s="57"/>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C467" s="57"/>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C468" s="57"/>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C469" s="57"/>
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C470" s="57"/>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C471" s="57"/>
+    </row>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C472" s="57"/>
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C473" s="57"/>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C474" s="57"/>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C475" s="57"/>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C476" s="57"/>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C477" s="57"/>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C478" s="57"/>
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C479" s="57"/>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C480" s="57"/>
+    </row>
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C481" s="57"/>
+    </row>
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C482" s="57"/>
+    </row>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C483" s="57"/>
+    </row>
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C484" s="57"/>
+    </row>
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C485" s="57"/>
+    </row>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C486" s="57"/>
+    </row>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C487" s="57"/>
+    </row>
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C488" s="57"/>
+    </row>
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C489" s="57"/>
+    </row>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C490" s="57"/>
+    </row>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C491" s="57"/>
+    </row>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C492" s="57"/>
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C493" s="57"/>
+    </row>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C494" s="57"/>
+    </row>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C495" s="57"/>
+    </row>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C496" s="57"/>
+    </row>
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C497" s="57"/>
+    </row>
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C498" s="57"/>
+    </row>
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C499" s="57"/>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C500" s="57"/>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C501" s="57"/>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C502" s="57"/>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C503" s="57"/>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C504" s="57"/>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C505" s="57"/>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C506" s="57"/>
+    </row>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C507" s="57"/>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C508" s="57"/>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C509" s="57"/>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C510" s="57"/>
+    </row>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C511" s="57"/>
+    </row>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C512" s="57"/>
+    </row>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C513" s="57"/>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C514" s="57"/>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C515" s="57"/>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C516" s="57"/>
+    </row>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C517" s="57"/>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C518" s="57"/>
+    </row>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C519" s="57"/>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C520" s="57"/>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C521" s="57"/>
+    </row>
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C522" s="57"/>
+    </row>
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C523" s="57"/>
+    </row>
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C524" s="57"/>
+    </row>
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C525" s="57"/>
+    </row>
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C526" s="57"/>
+    </row>
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C527" s="57"/>
+    </row>
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C528" s="57"/>
+    </row>
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C529" s="57"/>
+    </row>
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C530" s="57"/>
+    </row>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C531" s="57"/>
+    </row>
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C532" s="57"/>
+    </row>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C533" s="57"/>
+    </row>
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C534" s="57"/>
+    </row>
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C535" s="57"/>
+    </row>
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C536" s="57"/>
+    </row>
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C537" s="57"/>
+    </row>
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C538" s="57"/>
+    </row>
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C539" s="57"/>
+    </row>
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C540" s="57"/>
+    </row>
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C541" s="57"/>
+    </row>
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C542" s="57"/>
+    </row>
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C543" s="57"/>
+    </row>
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C544" s="57"/>
+    </row>
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C545" s="57"/>
+    </row>
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C546" s="57"/>
+    </row>
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C547" s="57"/>
+    </row>
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C548" s="57"/>
+    </row>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C549" s="57"/>
+    </row>
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C550" s="57"/>
+    </row>
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C551" s="57"/>
+    </row>
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C552" s="57"/>
+    </row>
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C553" s="57"/>
+    </row>
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C554" s="57"/>
+    </row>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C555" s="57"/>
+    </row>
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C556" s="57"/>
+    </row>
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C557" s="57"/>
+    </row>
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C558" s="57"/>
+    </row>
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C559" s="57"/>
+    </row>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C560" s="57"/>
+    </row>
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C561" s="57"/>
+    </row>
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C562" s="57"/>
+    </row>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C563" s="57"/>
+    </row>
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C564" s="57"/>
+    </row>
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C565" s="57"/>
+    </row>
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C566" s="57"/>
+    </row>
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C567" s="57"/>
+    </row>
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C568" s="57"/>
+    </row>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C569" s="57"/>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C570" s="57"/>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C571" s="57"/>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C572" s="57"/>
+    </row>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C573" s="57"/>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C574" s="57"/>
+    </row>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C575" s="57"/>
+    </row>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C576" s="57"/>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C577" s="57"/>
+    </row>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C578" s="57"/>
+    </row>
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C579" s="57"/>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C580" s="57"/>
+    </row>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C581" s="57"/>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C582" s="57"/>
+    </row>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C583" s="57"/>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C584" s="57"/>
+    </row>
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C585" s="57"/>
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C586" s="57"/>
+    </row>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C587" s="57"/>
+    </row>
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C588" s="57"/>
+    </row>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C589" s="57"/>
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C590" s="57"/>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C591" s="57"/>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C592" s="57"/>
+    </row>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C593" s="57"/>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C594" s="57"/>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C595" s="57"/>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C596" s="57"/>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C597" s="57"/>
+    </row>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C598" s="57"/>
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C599" s="57"/>
+    </row>
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C600" s="57"/>
+    </row>
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C601" s="57"/>
+    </row>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C602" s="57"/>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C603" s="57"/>
+    </row>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C604" s="57"/>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C605" s="57"/>
+    </row>
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C606" s="57"/>
+    </row>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C607" s="57"/>
+    </row>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C608" s="57"/>
+    </row>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C609" s="57"/>
+    </row>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C610" s="57"/>
+    </row>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C611" s="57"/>
+    </row>
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C612" s="57"/>
+    </row>
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C613" s="57"/>
+    </row>
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C614" s="57"/>
+    </row>
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C615" s="57"/>
+    </row>
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C616" s="57"/>
+    </row>
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C617" s="57"/>
+    </row>
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C618" s="57"/>
+    </row>
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C619" s="57"/>
+    </row>
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C620" s="57"/>
+    </row>
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C621" s="57"/>
+    </row>
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C622" s="57"/>
+    </row>
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C623" s="57"/>
+    </row>
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C624" s="57"/>
+    </row>
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C625" s="57"/>
+    </row>
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C626" s="57"/>
+    </row>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C627" s="57"/>
+    </row>
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C628" s="57"/>
+    </row>
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C629" s="57"/>
+    </row>
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C630" s="57"/>
+    </row>
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C631" s="57"/>
+    </row>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C632" s="57"/>
+    </row>
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C633" s="57"/>
+    </row>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C634" s="57"/>
+    </row>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C635" s="57"/>
+    </row>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C636" s="57"/>
+    </row>
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C637" s="57"/>
+    </row>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C638" s="57"/>
+    </row>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C639" s="57"/>
+    </row>
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C640" s="57"/>
+    </row>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C641" s="57"/>
+    </row>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C642" s="57"/>
+    </row>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C643" s="57"/>
+    </row>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C644" s="57"/>
+    </row>
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C645" s="57"/>
+    </row>
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C646" s="57"/>
+    </row>
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C647" s="57"/>
+    </row>
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C648" s="57"/>
+    </row>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C649" s="57"/>
+    </row>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C650" s="57"/>
+    </row>
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C651" s="57"/>
+    </row>
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C652" s="57"/>
+    </row>
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C653" s="57"/>
+    </row>
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C654" s="57"/>
+    </row>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C655" s="57"/>
+    </row>
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C656" s="57"/>
+    </row>
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C657" s="57"/>
+    </row>
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C658" s="57"/>
+    </row>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C659" s="57"/>
+    </row>
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C660" s="57"/>
+    </row>
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C661" s="57"/>
+    </row>
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C662" s="57"/>
+    </row>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C663" s="57"/>
+    </row>
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C664" s="57"/>
+    </row>
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C665" s="57"/>
+    </row>
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C666" s="57"/>
+    </row>
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C667" s="57"/>
+    </row>
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C668" s="57"/>
+    </row>
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C669" s="57"/>
+    </row>
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C670" s="57"/>
+    </row>
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C671" s="57"/>
+    </row>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C672" s="57"/>
+    </row>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C673" s="57"/>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C674" s="57"/>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C675" s="57"/>
+    </row>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C676" s="57"/>
+    </row>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C677" s="57"/>
+    </row>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C678" s="57"/>
+    </row>
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C679" s="57"/>
+    </row>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C680" s="57"/>
+    </row>
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C681" s="57"/>
+    </row>
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C682" s="57"/>
+    </row>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C683" s="57"/>
+    </row>
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C684" s="57"/>
+    </row>
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C685" s="57"/>
+    </row>
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C686" s="57"/>
+    </row>
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C687" s="57"/>
+    </row>
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C688" s="57"/>
+    </row>
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C689" s="57"/>
+    </row>
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C690" s="57"/>
+    </row>
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C691" s="57"/>
+    </row>
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C692" s="57"/>
+    </row>
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C693" s="57"/>
+    </row>
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C694" s="57"/>
+    </row>
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C695" s="57"/>
+    </row>
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C696" s="57"/>
+    </row>
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C697" s="57"/>
+    </row>
+    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C698" s="57"/>
+    </row>
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C699" s="57"/>
+    </row>
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C700" s="57"/>
+    </row>
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C701" s="57"/>
+    </row>
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C702" s="57"/>
+    </row>
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C703" s="57"/>
+    </row>
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C704" s="57"/>
+    </row>
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C705" s="57"/>
+    </row>
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C706" s="57"/>
+    </row>
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C707" s="57"/>
+    </row>
+    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C708" s="57"/>
+    </row>
+    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C709" s="57"/>
+    </row>
+    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C710" s="57"/>
+    </row>
+    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C711" s="57"/>
+    </row>
+    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C712" s="57"/>
+    </row>
+    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C713" s="57"/>
+    </row>
+    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C714" s="57"/>
+    </row>
+    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C715" s="57"/>
+    </row>
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C716" s="57"/>
+    </row>
+    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C717" s="57"/>
+    </row>
+    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C718" s="57"/>
+    </row>
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C719" s="57"/>
+    </row>
+    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C720" s="57"/>
+    </row>
+    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C721" s="57"/>
+    </row>
+    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C722" s="57"/>
+    </row>
+    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C723" s="57"/>
+    </row>
+    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C724" s="57"/>
+    </row>
+    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C725" s="57"/>
+    </row>
+    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C726" s="57"/>
+    </row>
+    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C727" s="57"/>
+    </row>
+    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C728" s="57"/>
+    </row>
+    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C729" s="57"/>
+    </row>
+    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C730" s="57"/>
+    </row>
+    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C731" s="57"/>
+    </row>
+    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C732" s="57"/>
+    </row>
+    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C733" s="57"/>
+    </row>
+    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C734" s="57"/>
+    </row>
+    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C735" s="57"/>
+    </row>
+    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C736" s="57"/>
+    </row>
+    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C737" s="57"/>
+    </row>
+    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C738" s="57"/>
+    </row>
+    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C739" s="57"/>
+    </row>
+    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C740" s="57"/>
+    </row>
+    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C741" s="57"/>
+    </row>
+    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C742" s="57"/>
+    </row>
+    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C743" s="57"/>
+    </row>
+    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C744" s="57"/>
+    </row>
+    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C745" s="57"/>
+    </row>
+    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C746" s="57"/>
+    </row>
+    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C747" s="57"/>
+    </row>
+    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C748" s="57"/>
+    </row>
+    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C749" s="57"/>
+    </row>
+    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C750" s="57"/>
+    </row>
+    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C751" s="57"/>
+    </row>
+    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C752" s="57"/>
+    </row>
+    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C753" s="57"/>
+    </row>
+    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C754" s="57"/>
+    </row>
+    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C755" s="57"/>
+    </row>
+    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C756" s="57"/>
+    </row>
+    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C757" s="57"/>
+    </row>
+    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C758" s="57"/>
+    </row>
+    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C759" s="57"/>
+    </row>
+    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C760" s="57"/>
+    </row>
+    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C761" s="57"/>
+    </row>
+    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C762" s="57"/>
+    </row>
+    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C763" s="57"/>
+    </row>
+    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C764" s="57"/>
+    </row>
+    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C765" s="57"/>
+    </row>
+    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C766" s="57"/>
+    </row>
+    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C767" s="57"/>
+    </row>
+    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C768" s="57"/>
+    </row>
+    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C769" s="57"/>
+    </row>
+    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C770" s="57"/>
+    </row>
+    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C771" s="57"/>
+    </row>
+    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C772" s="57"/>
+    </row>
+    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C773" s="57"/>
+    </row>
+    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C774" s="57"/>
+    </row>
+    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C775" s="57"/>
+    </row>
+    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C776" s="57"/>
+    </row>
+    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C777" s="57"/>
+    </row>
+    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C778" s="57"/>
+    </row>
+    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C779" s="57"/>
+    </row>
+    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C780" s="57"/>
+    </row>
+    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C781" s="57"/>
+    </row>
+    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C782" s="57"/>
+    </row>
+    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C783" s="57"/>
+    </row>
+    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C784" s="57"/>
+    </row>
+    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C785" s="57"/>
+    </row>
+    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C786" s="57"/>
+    </row>
+    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C787" s="57"/>
+    </row>
+    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C788" s="57"/>
+    </row>
+    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C789" s="57"/>
+    </row>
+    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C790" s="57"/>
+    </row>
+    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C791" s="57"/>
+    </row>
+    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C792" s="57"/>
+    </row>
+    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C793" s="57"/>
+    </row>
+    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C794" s="57"/>
+    </row>
+    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C795" s="57"/>
+    </row>
+    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C796" s="57"/>
+    </row>
+    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C797" s="57"/>
+    </row>
+    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C798" s="57"/>
+    </row>
+    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C799" s="57"/>
+    </row>
+    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C800" s="57"/>
+    </row>
+    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C801" s="57"/>
+    </row>
+    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C802" s="57"/>
+    </row>
+    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C803" s="57"/>
+    </row>
+    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C804" s="57"/>
+    </row>
+    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C805" s="57"/>
+    </row>
+    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C806" s="57"/>
+    </row>
+    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C807" s="57"/>
+    </row>
+    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C808" s="57"/>
+    </row>
+    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C809" s="57"/>
+    </row>
+    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C810" s="57"/>
+    </row>
+    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C811" s="57"/>
+    </row>
+    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C812" s="57"/>
+    </row>
+    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C813" s="57"/>
+    </row>
+    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C814" s="57"/>
+    </row>
+    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C815" s="57"/>
+    </row>
+    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C816" s="57"/>
+    </row>
+    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C817" s="57"/>
+    </row>
+    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C818" s="57"/>
+    </row>
+    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C819" s="57"/>
+    </row>
+    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C820" s="57"/>
+    </row>
+    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C821" s="57"/>
+    </row>
+    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C822" s="57"/>
+    </row>
+    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C823" s="57"/>
+    </row>
+    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C824" s="57"/>
+    </row>
+    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C825" s="57"/>
+    </row>
+    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C826" s="57"/>
+    </row>
+    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C827" s="57"/>
+    </row>
+    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C828" s="57"/>
+    </row>
+    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C829" s="57"/>
+    </row>
+    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C830" s="57"/>
+    </row>
+    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C831" s="57"/>
+    </row>
+    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C832" s="57"/>
+    </row>
+    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C833" s="57"/>
+    </row>
+    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C834" s="57"/>
+    </row>
+    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C835" s="57"/>
+    </row>
+    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C836" s="57"/>
+    </row>
+    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C837" s="57"/>
+    </row>
+    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C838" s="57"/>
+    </row>
+    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C839" s="57"/>
+    </row>
+    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C840" s="57"/>
+    </row>
+    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C841" s="57"/>
+    </row>
+    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C842" s="57"/>
+    </row>
+    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C843" s="57"/>
+    </row>
+    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C844" s="57"/>
+    </row>
+    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C845" s="57"/>
+    </row>
+    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C846" s="57"/>
+    </row>
+    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C847" s="57"/>
+    </row>
+    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C848" s="57"/>
+    </row>
+    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C849" s="57"/>
+    </row>
+    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C850" s="57"/>
+    </row>
+    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C851" s="57"/>
+    </row>
+    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C852" s="57"/>
+    </row>
+    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C853" s="57"/>
+    </row>
+    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C854" s="57"/>
+    </row>
+    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C855" s="57"/>
+    </row>
+    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C856" s="57"/>
+    </row>
+    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C857" s="57"/>
+    </row>
+    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C858" s="57"/>
+    </row>
+    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C859" s="57"/>
+    </row>
+    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C860" s="57"/>
+    </row>
+    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C861" s="57"/>
+    </row>
+    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C862" s="57"/>
+    </row>
+    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C863" s="57"/>
+    </row>
+    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C864" s="57"/>
+    </row>
+    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C865" s="57"/>
+    </row>
+    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C866" s="57"/>
+    </row>
+    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C867" s="57"/>
+    </row>
+    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C868" s="57"/>
+    </row>
+    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C869" s="57"/>
+    </row>
+    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C870" s="57"/>
+    </row>
+    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C871" s="57"/>
+    </row>
+    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C872" s="57"/>
+    </row>
+    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C873" s="57"/>
+    </row>
+    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C874" s="57"/>
+    </row>
+    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C875" s="57"/>
+    </row>
+    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C876" s="57"/>
+    </row>
+    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C877" s="57"/>
+    </row>
+    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C878" s="57"/>
+    </row>
+    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C879" s="57"/>
+    </row>
+    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C880" s="57"/>
+    </row>
+    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C881" s="57"/>
+    </row>
+    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C882" s="57"/>
+    </row>
+    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C883" s="57"/>
+    </row>
+    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C884" s="57"/>
+    </row>
+    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C885" s="57"/>
+    </row>
+    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C886" s="57"/>
+    </row>
+    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C887" s="57"/>
+    </row>
+    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C888" s="57"/>
+    </row>
+    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C889" s="57"/>
+    </row>
+    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C890" s="57"/>
+    </row>
+    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C891" s="57"/>
+    </row>
+    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C892" s="57"/>
+    </row>
+    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C893" s="57"/>
+    </row>
+    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C894" s="57"/>
+    </row>
+    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C895" s="57"/>
+    </row>
+    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C896" s="57"/>
+    </row>
+    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C897" s="57"/>
+    </row>
+    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C898" s="57"/>
+    </row>
+    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C899" s="57"/>
+    </row>
+    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C900" s="57"/>
+    </row>
+    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C901" s="57"/>
+    </row>
+    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C902" s="57"/>
+    </row>
+    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C903" s="57"/>
+    </row>
+    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C904" s="57"/>
+    </row>
+    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C905" s="57"/>
+    </row>
+    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C906" s="57"/>
+    </row>
+    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C907" s="57"/>
+    </row>
+    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C908" s="57"/>
+    </row>
+    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C909" s="57"/>
+    </row>
+    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C910" s="57"/>
+    </row>
+    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C911" s="57"/>
+    </row>
+    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C912" s="57"/>
+    </row>
+    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C913" s="57"/>
+    </row>
+    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C914" s="57"/>
+    </row>
+    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C915" s="57"/>
+    </row>
+    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C916" s="57"/>
+    </row>
+    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C917" s="57"/>
+    </row>
+    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C918" s="57"/>
+    </row>
+    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C919" s="57"/>
+    </row>
+    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C920" s="57"/>
+    </row>
+    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C921" s="57"/>
+    </row>
+    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C922" s="57"/>
+    </row>
+    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C923" s="57"/>
+    </row>
+    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C924" s="57"/>
+    </row>
+    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C925" s="57"/>
+    </row>
+    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C926" s="57"/>
+    </row>
+    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C927" s="57"/>
+    </row>
+    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C928" s="57"/>
+    </row>
+    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C929" s="57"/>
+    </row>
+    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C930" s="57"/>
+    </row>
+    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C931" s="57"/>
+    </row>
+    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C932" s="57"/>
+    </row>
+    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C933" s="57"/>
+    </row>
+    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C934" s="57"/>
+    </row>
+    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C935" s="57"/>
+    </row>
+    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C936" s="57"/>
+    </row>
+    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C937" s="57"/>
+    </row>
+    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C938" s="57"/>
+    </row>
+    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C939" s="57"/>
+    </row>
+    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C940" s="57"/>
+    </row>
+    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C941" s="57"/>
+    </row>
+    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C942" s="57"/>
+    </row>
+    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C943" s="57"/>
+    </row>
+    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C944" s="57"/>
+    </row>
+    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C945" s="57"/>
+    </row>
+    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C946" s="57"/>
+    </row>
+    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C947" s="57"/>
+    </row>
+    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C948" s="57"/>
+    </row>
+    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C949" s="57"/>
+    </row>
+    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C950" s="57"/>
+    </row>
+    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C951" s="57"/>
+    </row>
+    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C952" s="57"/>
+    </row>
+    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C953" s="57"/>
+    </row>
+    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C954" s="57"/>
+    </row>
+    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C955" s="57"/>
+    </row>
+    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C956" s="57"/>
+    </row>
+    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C957" s="57"/>
+    </row>
+    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C958" s="57"/>
+    </row>
+    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C959" s="57"/>
+    </row>
+    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C960" s="57"/>
+    </row>
+    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C961" s="57"/>
+    </row>
+    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C962" s="57"/>
+    </row>
+    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C963" s="57"/>
+    </row>
+    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C964" s="57"/>
+    </row>
+    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C965" s="57"/>
+    </row>
+    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C966" s="57"/>
+    </row>
+    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C967" s="57"/>
+    </row>
+    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C968" s="57"/>
+    </row>
+    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C969" s="57"/>
+    </row>
+    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C970" s="57"/>
+    </row>
+    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C971" s="57"/>
+    </row>
+    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C972" s="57"/>
+    </row>
+    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C973" s="57"/>
+    </row>
+    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C974" s="57"/>
+    </row>
+    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C975" s="57"/>
+    </row>
+    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C976" s="57"/>
+    </row>
+    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C977" s="57"/>
+    </row>
+    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C978" s="57"/>
+    </row>
+    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C979" s="57"/>
+    </row>
+    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C980" s="57"/>
+    </row>
+    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C981" s="57"/>
+    </row>
+    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C982" s="57"/>
+    </row>
+    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C983" s="57"/>
+    </row>
+    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C984" s="57"/>
+    </row>
+    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C985" s="57"/>
+    </row>
+    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C986" s="57"/>
+    </row>
+    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C987" s="57"/>
+    </row>
+    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C988" s="57"/>
+    </row>
+    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C989" s="57"/>
+    </row>
+    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C990" s="57"/>
+    </row>
+    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C991" s="57"/>
+    </row>
+    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C992" s="57"/>
+    </row>
+    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C993" s="57"/>
+    </row>
+    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C994" s="57"/>
+    </row>
+    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C995" s="57"/>
+    </row>
+    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C996" s="57"/>
+    </row>
+    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C997" s="57"/>
+    </row>
+    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C998" s="57"/>
+    </row>
+    <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C999" s="57"/>
+    </row>
+    <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1000" s="57"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -9391,7 +10347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -9402,137 +10358,138 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="101.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="4" style="0" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="57"/>
-      <c r="B1" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="59" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="59" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="59" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="59" t="s">
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="61"/>
+      <c r="B1" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="C1" s="54" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="59" t="s">
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B2" s="64" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="59" t="s">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B3" s="64" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="59" t="s">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="61" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="63"/>
+      <c r="B5" s="63" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="59" t="s">
+    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="63"/>
+      <c r="B6" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="B16" s="59" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="63" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="B7" s="64" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="63"/>
+      <c r="B8" s="63" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="63"/>
+      <c r="B9" s="63" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="63"/>
+      <c r="B10" s="63" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="65" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
